--- a/df_1/df_1_10.xlsx
+++ b/df_1/df_1_10.xlsx
@@ -650,362 +650,362 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.3955 %</t>
+          <t>1,3955</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.238 %</t>
+          <t>0,238</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.3525 %</t>
+          <t>0,3525</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4247 %</t>
+          <t>0,4247</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4419 %</t>
+          <t>0,4419</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2915 %</t>
+          <t>0,2915</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.3328 %</t>
+          <t>0,3328</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4338 %</t>
+          <t>0,4338</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4123 %</t>
+          <t>0,4123</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.3976 %</t>
+          <t>0,3976</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.3329 %</t>
+          <t>0,3329</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.4585 %</t>
+          <t>0,4585</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.4556 %</t>
+          <t>0,4556</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.5406 %</t>
+          <t>0,5406</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3533 %</t>
+          <t>0,3533</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.4267 %</t>
+          <t>0,4267</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6183 %</t>
+          <t>0,6183</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.401 %</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.5311 %</t>
+          <t>0,5311</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.5227 %</t>
+          <t>0,5227</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.3521 %</t>
+          <t>1,3521</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.7591 %</t>
+          <t>0,7591</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5254 %</t>
+          <t>0,5254</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4594 %</t>
+          <t>0,4594</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.5632 %</t>
+          <t>0,5632</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.9757 %</t>
+          <t>0,9757</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.7144 %</t>
+          <t>0,7144</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.6597 %</t>
+          <t>0,6597</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.4227 %</t>
+          <t>0,4227</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.7592 %</t>
+          <t>0,7592</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.6659 %</t>
+          <t>0,6659</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.5581 %</t>
+          <t>0,5581</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.4136 %</t>
+          <t>0,4136</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.6751 %</t>
+          <t>0,6751</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.758 %</t>
+          <t>0,758</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.3196 %</t>
+          <t>0,3196</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.4647 %</t>
+          <t>0,4647</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.5692 %</t>
+          <t>1,5692</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.4294 %</t>
+          <t>0,4294</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.6229 %</t>
+          <t>0,6229</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1.0791 %</t>
+          <t>1,0791</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>2.1015 %</t>
+          <t>2,1015</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.4043 %</t>
+          <t>0,4043</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.3503 %</t>
+          <t>0,3503</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1.2334 %</t>
+          <t>1,2334</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>1.0224 %</t>
+          <t>1,0224</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.4485 %</t>
+          <t>0,4485</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.4366 %</t>
+          <t>0,4366</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.3484 %</t>
+          <t>0,3484</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.0116 %</t>
+          <t>1,0116</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.3381 %</t>
+          <t>0,3381</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.3449 %</t>
+          <t>0,3449</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.1634 %</t>
+          <t>0,1634</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.4849 %</t>
+          <t>0,4849</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.4982 %</t>
+          <t>0,4982</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.2049 %</t>
+          <t>0,2049</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.1878 %</t>
+          <t>0,1878</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.2812 %</t>
+          <t>0,2812</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.3311 %</t>
+          <t>0,3311</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.1715 %</t>
+          <t>0,1715</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.6542 %</t>
+          <t>0,6542</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.3648 %</t>
+          <t>0,3648</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.3058 %</t>
+          <t>0,3058</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.3754 %</t>
+          <t>0,3754</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.6212 %</t>
+          <t>0,6212</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.6232 %</t>
+          <t>0,6232</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.7485 %</t>
+          <t>0,7485</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.4134 %</t>
+          <t>0,4134</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.64 %</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.3252 %</t>
+          <t>0,3252</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.3 %</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>6.3829 %</t>
+          <t>6,3829</t>
         </is>
       </c>
     </row>
@@ -1017,222 +1017,222 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.1939 %</t>
+          <t>4,1939</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7381 %</t>
+          <t>0,7381</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4272 %</t>
+          <t>0,4272</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3491 %</t>
+          <t>0,3491</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.2475 %</t>
+          <t>0,2475</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4503 %</t>
+          <t>0,4503</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.331 %</t>
+          <t>0,331</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3451 %</t>
+          <t>0,3451</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3306 %</t>
+          <t>0,3306</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.473 %</t>
+          <t>0,473</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3592 %</t>
+          <t>0,3592</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4798 %</t>
+          <t>0,4798</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4719 %</t>
+          <t>0,4719</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.3548 %</t>
+          <t>0,3548</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.6555 %</t>
+          <t>0,6555</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.5194 %</t>
+          <t>0,5194</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.6613 %</t>
+          <t>0,6613</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.3988 %</t>
+          <t>0,3988</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.778 %</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.0388 %</t>
+          <t>1,0388</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.7187 %</t>
+          <t>0,7187</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.8521 %</t>
+          <t>0,8521</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.1671 %</t>
+          <t>1,1671</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.0128 %</t>
+          <t>1,0128</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.6836 %</t>
+          <t>0,6836</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2.3566 %</t>
+          <t>2,3566</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.7658 %</t>
+          <t>0,7658</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.0344 %</t>
+          <t>1,0344</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4554 %</t>
+          <t>0,4554</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.9524 %</t>
+          <t>0,9524</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4199 %</t>
+          <t>0,4199</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.6614 %</t>
+          <t>0,6614</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.5346 %</t>
+          <t>0,5346</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2288 %</t>
+          <t>0,2288</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.221 %</t>
+          <t>0,221</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.1409 %</t>
+          <t>0,1409</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.1291 %</t>
+          <t>0,1291</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.1603 %</t>
+          <t>0,1603</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.2029 %</t>
+          <t>0,2029</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.0881 %</t>
+          <t>0,0881</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.15 %</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.0609 %</t>
+          <t>0,0609</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.1389 %</t>
+          <t>0,1389</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.7601 %</t>
+          <t>0,7601</t>
         </is>
       </c>
     </row>
@@ -1244,207 +1244,207 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.9259 %</t>
+          <t>1,9259</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7922 %</t>
+          <t>1,7922</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.5297 %</t>
+          <t>2,5297</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.713 %</t>
+          <t>2,713</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.6263 %</t>
+          <t>4,6263</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3286 %</t>
+          <t>2,3286</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.6914 %</t>
+          <t>1,6914</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.2843 %</t>
+          <t>1,2843</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.9618 %</t>
+          <t>0,9618</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.3877 %</t>
+          <t>0,3877</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0266 %</t>
+          <t>0,0266</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0192 %</t>
+          <t>0,0192</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.022 %</t>
+          <t>0,022</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0403 %</t>
+          <t>0,0403</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.1258 %</t>
+          <t>0,1258</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.2168 %</t>
+          <t>0,2168</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.2647 %</t>
+          <t>0,2647</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.1644 %</t>
+          <t>0,1644</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.204 %</t>
+          <t>0,204</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.3646 %</t>
+          <t>0,3646</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.533 %</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.8367 %</t>
+          <t>0,8367</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.1459 %</t>
+          <t>1,1459</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.5355 %</t>
+          <t>1,5355</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1.3761 %</t>
+          <t>1,3761</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5515 %</t>
+          <t>0,5515</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.2971 %</t>
+          <t>0,2971</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.2756 %</t>
+          <t>0,2756</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.2426 %</t>
+          <t>0,2426</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.2161 %</t>
+          <t>0,2161</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.2676 %</t>
+          <t>0,2676</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.2951 %</t>
+          <t>0,2951</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.3239 %</t>
+          <t>0,3239</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.37 %</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.344 %</t>
+          <t>0,344</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.3663 %</t>
+          <t>0,3663</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.4472 %</t>
+          <t>0,4472</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5564 %</t>
+          <t>0,5564</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.7334 %</t>
+          <t>0,7334</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.5429 %</t>
+          <t>0,5429</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.5561 %</t>
+          <t>0,5561</t>
         </is>
       </c>
     </row>
